--- a/ig/ch-core/ValueSet-ech-46-emailcategory.xlsx
+++ b/ig/ch-core/ValueSet-ech-46-emailcategory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>
